--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fgf2-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fgf2-Cd44.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.747119</v>
+        <v>0.456404</v>
       </c>
       <c r="H2">
-        <v>2.241357</v>
+        <v>1.369212</v>
       </c>
       <c r="I2">
-        <v>0.03096954854571248</v>
+        <v>0.01914960767004715</v>
       </c>
       <c r="J2">
-        <v>0.03096954854571248</v>
+        <v>0.01914960767004715</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>297.8183156666666</v>
+        <v>8.142376000000001</v>
       </c>
       <c r="N2">
-        <v>893.4549469999999</v>
+        <v>24.427128</v>
       </c>
       <c r="O2">
-        <v>0.8852156413092672</v>
+        <v>0.1741313933276368</v>
       </c>
       <c r="P2">
-        <v>0.8852156413092673</v>
+        <v>0.1741313933276368</v>
       </c>
       <c r="Q2">
-        <v>222.5057221825643</v>
+        <v>3.716212975904</v>
       </c>
       <c r="R2">
-        <v>2002.551499643079</v>
+        <v>33.44591678313601</v>
       </c>
       <c r="S2">
-        <v>0.02741472877695136</v>
+        <v>0.003334547865262911</v>
       </c>
       <c r="T2">
-        <v>0.02741472877695136</v>
+        <v>0.003334547865262911</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.747119</v>
+        <v>0.456404</v>
       </c>
       <c r="H3">
-        <v>2.241357</v>
+        <v>1.369212</v>
       </c>
       <c r="I3">
-        <v>0.03096954854571248</v>
+        <v>0.01914960767004715</v>
       </c>
       <c r="J3">
-        <v>0.03096954854571248</v>
+        <v>0.01914960767004715</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>73.021033</v>
       </c>
       <c r="O3">
-        <v>0.07234764413494278</v>
+        <v>0.5205382400466131</v>
       </c>
       <c r="P3">
-        <v>0.0723476441349428</v>
+        <v>0.5205382400466131</v>
       </c>
       <c r="Q3">
-        <v>18.18513371797567</v>
+        <v>11.10903051511067</v>
       </c>
       <c r="R3">
-        <v>163.666203461781</v>
+        <v>99.98127463599602</v>
       </c>
       <c r="S3">
-        <v>0.002240573877205041</v>
+        <v>0.009968103074149469</v>
       </c>
       <c r="T3">
-        <v>0.002240573877205042</v>
+        <v>0.009968103074149469</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.747119</v>
+        <v>0.456404</v>
       </c>
       <c r="H4">
-        <v>2.241357</v>
+        <v>1.369212</v>
       </c>
       <c r="I4">
-        <v>0.03096954854571248</v>
+        <v>0.01914960767004715</v>
       </c>
       <c r="J4">
-        <v>0.03096954854571248</v>
+        <v>0.01914960767004715</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>42.831702</v>
       </c>
       <c r="O4">
-        <v>0.04243671455578994</v>
+        <v>0.3053303666257501</v>
       </c>
       <c r="P4">
-        <v>0.04243671455578994</v>
+        <v>0.3053303666257501</v>
       </c>
       <c r="Q4">
-        <v>10.666792788846</v>
+        <v>6.516186706536001</v>
       </c>
       <c r="R4">
-        <v>96.00113509961399</v>
+        <v>58.645680358824</v>
       </c>
       <c r="S4">
-        <v>0.00131424589155608</v>
+        <v>0.005846956730634774</v>
       </c>
       <c r="T4">
-        <v>0.00131424589155608</v>
+        <v>0.005846956730634774</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>59.23857700000001</v>
       </c>
       <c r="I5">
-        <v>0.8185184181638298</v>
+        <v>0.8285024587002443</v>
       </c>
       <c r="J5">
-        <v>0.8185184181638298</v>
+        <v>0.8285024587002443</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>297.8183156666666</v>
+        <v>8.142376000000001</v>
       </c>
       <c r="N5">
-        <v>893.4549469999999</v>
+        <v>24.427128</v>
       </c>
       <c r="O5">
-        <v>0.8852156413092672</v>
+        <v>0.1741313933276368</v>
       </c>
       <c r="P5">
-        <v>0.8852156413092673</v>
+        <v>0.1741313933276368</v>
       </c>
       <c r="Q5">
-        <v>5880.77774154338</v>
+        <v>160.7809225463174</v>
       </c>
       <c r="R5">
-        <v>52926.99967389042</v>
+        <v>1447.028302916856</v>
       </c>
       <c r="S5">
-        <v>0.7245653064583415</v>
+        <v>0.1442682875088464</v>
       </c>
       <c r="T5">
-        <v>0.7245653064583416</v>
+        <v>0.1442682875088464</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>59.23857700000001</v>
       </c>
       <c r="I6">
-        <v>0.8185184181638298</v>
+        <v>0.8285024587002443</v>
       </c>
       <c r="J6">
-        <v>0.8185184181638298</v>
+        <v>0.8285024587002443</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>73.021033</v>
       </c>
       <c r="O6">
-        <v>0.07234764413494278</v>
+        <v>0.5205382400466131</v>
       </c>
       <c r="P6">
-        <v>0.0723476441349428</v>
+        <v>0.5205382400466131</v>
       </c>
       <c r="Q6">
         <v>480.6291206655602</v>
@@ -818,10 +818,10 @@
         <v>4325.662085990041</v>
       </c>
       <c r="S6">
-        <v>0.05921787923521304</v>
+        <v>0.4312672117261169</v>
       </c>
       <c r="T6">
-        <v>0.05921787923521305</v>
+        <v>0.4312672117261169</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>59.23857700000001</v>
       </c>
       <c r="I7">
-        <v>0.8185184181638298</v>
+        <v>0.8285024587002443</v>
       </c>
       <c r="J7">
-        <v>0.8185184181638298</v>
+        <v>0.8285024587002443</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>42.831702</v>
       </c>
       <c r="O7">
-        <v>0.04243671455578994</v>
+        <v>0.3053303666257501</v>
       </c>
       <c r="P7">
-        <v>0.04243671455578994</v>
+        <v>0.3053303666257501</v>
       </c>
       <c r="Q7">
         <v>281.9210085520061</v>
@@ -880,10 +880,10 @@
         <v>2537.289076968054</v>
       </c>
       <c r="S7">
-        <v>0.03473523247027515</v>
+        <v>0.252966959465281</v>
       </c>
       <c r="T7">
-        <v>0.03473523247027515</v>
+        <v>0.252966959465281</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>10.892997</v>
       </c>
       <c r="I8">
-        <v>0.1505120332904577</v>
+        <v>0.1523479336297086</v>
       </c>
       <c r="J8">
-        <v>0.1505120332904577</v>
+        <v>0.1523479336297086</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>297.8183156666666</v>
+        <v>8.142376000000001</v>
       </c>
       <c r="N8">
-        <v>893.4549469999999</v>
+        <v>24.427128</v>
       </c>
       <c r="O8">
-        <v>0.8852156413092672</v>
+        <v>0.1741313933276368</v>
       </c>
       <c r="P8">
-        <v>0.8852156413092673</v>
+        <v>0.1741313933276368</v>
       </c>
       <c r="Q8">
-        <v>1081.378006367351</v>
+        <v>29.56495911362401</v>
       </c>
       <c r="R8">
-        <v>9732.402057306159</v>
+        <v>266.0846320226161</v>
       </c>
       <c r="S8">
-        <v>0.1332356060739743</v>
+        <v>0.0265285579535275</v>
       </c>
       <c r="T8">
-        <v>0.1332356060739743</v>
+        <v>0.0265285579535275</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>10.892997</v>
       </c>
       <c r="I9">
-        <v>0.1505120332904577</v>
+        <v>0.1523479336297086</v>
       </c>
       <c r="J9">
-        <v>0.1505120332904577</v>
+        <v>0.1523479336297086</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>73.021033</v>
       </c>
       <c r="O9">
-        <v>0.07234764413494278</v>
+        <v>0.5205382400466131</v>
       </c>
       <c r="P9">
-        <v>0.0723476441349428</v>
+        <v>0.5205382400466131</v>
       </c>
       <c r="Q9">
         <v>88.37976593398902</v>
@@ -1004,10 +1004,10 @@
         <v>795.4178934059012</v>
       </c>
       <c r="S9">
-        <v>0.0108891910225247</v>
+        <v>0.07930292524634676</v>
       </c>
       <c r="T9">
-        <v>0.0108891910225247</v>
+        <v>0.07930292524634676</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>10.892997</v>
       </c>
       <c r="I10">
-        <v>0.1505120332904577</v>
+        <v>0.1523479336297086</v>
       </c>
       <c r="J10">
-        <v>0.1505120332904577</v>
+        <v>0.1523479336297086</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>42.831702</v>
       </c>
       <c r="O10">
-        <v>0.04243671455578994</v>
+        <v>0.3053303666257501</v>
       </c>
       <c r="P10">
-        <v>0.04243671455578994</v>
+        <v>0.3053303666257501</v>
       </c>
       <c r="Q10">
         <v>51.84062237676601</v>
@@ -1066,10 +1066,10 @@
         <v>466.5656013908941</v>
       </c>
       <c r="S10">
-        <v>0.006387236193958707</v>
+        <v>0.04651645042983438</v>
       </c>
       <c r="T10">
-        <v>0.006387236193958708</v>
+        <v>0.04651645042983438</v>
       </c>
     </row>
   </sheetData>
